--- a/data/2020_03_26_Imperial_Sweden/imperial_model.xlsx
+++ b/data/2020_03_26_Imperial_Sweden/imperial_model.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasstarck/Desktop/Cov/Site/2020_03_26_Imperial_Sweden/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasstarck/Documents/GitHub/france_eng/data/2020_03_26_Imperial_Sweden/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FB1D56-912E-144F-B1A9-A52C3A5D0321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEC571E-DD59-5440-90D7-6BF4EBA56387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-940" yWindow="-19980" windowWidth="25600" windowHeight="19980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-940" yWindow="-17500" windowWidth="25600" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Citations rapport" sheetId="1" r:id="rId1"/>
-    <sheet name="Comparaison" sheetId="4" r:id="rId2"/>
+    <sheet name="report citations" sheetId="1" r:id="rId1"/>
+    <sheet name="Comparison" sheetId="4" r:id="rId2"/>
     <sheet name="France" sheetId="5" r:id="rId3"/>
-    <sheet name="Pour aller plus loin" sheetId="2" r:id="rId4"/>
+    <sheet name="to go beyond" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t xml:space="preserve"> Enhanced social distancing of elderly </t>
   </si>
@@ -60,19 +60,11 @@
     <t>Aucune mesure</t>
   </si>
   <si>
-    <t>Distanciation sociale 
-de toute la population</t>
-  </si>
-  <si>
     <t>Suppression</t>
   </si>
   <si>
     <t>Suppression forte
 (confinement)</t>
-  </si>
-  <si>
-    <t>Distanciation renforcée 
-des plus âgés</t>
   </si>
   <si>
     <t>source</t>
@@ -93,16 +85,7 @@
     <t>?</t>
   </si>
   <si>
-    <t>nombre total de réanimations cumulées</t>
-  </si>
-  <si>
-    <t>pas trouvé la donnée sur ourworldindata, autre part ?</t>
-  </si>
-  <si>
     <t>il en manque 1 ici</t>
-  </si>
-  <si>
-    <t>nombre total d'hospitalisations cumulées</t>
   </si>
   <si>
     <t>Enhanced social distancing of elderly</t>
@@ -183,14 +166,41 @@
     <t>Mesures intermédiaires
 sans confinement</t>
   </si>
+  <si>
+    <t>cumultaive hospitalisations</t>
+  </si>
+  <si>
+    <t>cumulative ICUs</t>
+  </si>
+  <si>
+    <t>not on ourworld in data, where to find it</t>
+  </si>
+  <si>
+    <t>No restrictions</t>
+  </si>
+  <si>
+    <t>Enhanced social distancing
+of elderiy</t>
+  </si>
+  <si>
+    <t>Social distancing
+for the whole population</t>
+  </si>
+  <si>
+    <t>Suppression
+(lockdown)</t>
+  </si>
+  <si>
+    <t>Reality</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0_)_ ;_ * \(#,##0\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_)_ ;_ * \(#,##0\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -687,7 +697,7 @@
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -730,16 +740,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -747,19 +757,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -775,57 +792,51 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20 % - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="15" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="12" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="8" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
-    <cellStyle name="Neutre" xfId="9" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="7" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="17" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="5" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -843,7 +854,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -875,11 +886,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR" sz="2880" b="1"/>
-              <a:t>Morts du Covid en Suède durant la 1ère</a:t>
+              <a:t>Sweden</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="fr-FR" sz="2880" b="1" baseline="0"/>
-              <a:t> vague </a:t>
+              <a:t> Covid Deaths, 1st wave</a:t>
             </a:r>
             <a:endParaRPr lang="fr-FR" sz="2880" b="1"/>
           </a:p>
@@ -910,7 +921,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -936,7 +947,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparaison!$B$2</c:f>
+              <c:f>Comparison!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -954,30 +965,30 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparaison!$C$2:$G$2</c:f>
+              <c:f>Comparison!$C$2:$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Suppression forte
-(confinement)</c:v>
+                  <c:v>Suppression
+(lockdown)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Distanciation renforcée 
-des plus âgés</c:v>
+                  <c:v>Enhanced social distancing
+of elderiy</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Distanciation sociale 
-de toute la population</c:v>
+                  <c:v>Social distancing
+for the whole population</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Aucune mesure</c:v>
+                  <c:v>No restrictions</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$C$3:$G$3</c:f>
+              <c:f>Comparison!$C$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>_ * #\ ##0_)_ ;_ * \(#\ ##0\)_ ;_ * "-"??_)_ ;_ @_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -995,7 +1006,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparaison!$B$3</c:f>
+              <c:f>Comparison!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1015,30 +1026,30 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparaison!$C$2:$G$2</c:f>
+              <c:f>Comparison!$C$2:$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Suppression forte
-(confinement)</c:v>
+                  <c:v>Suppression
+(lockdown)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Distanciation renforcée 
-des plus âgés</c:v>
+                  <c:v>Enhanced social distancing
+of elderiy</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Distanciation sociale 
-de toute la population</c:v>
+                  <c:v>Social distancing
+for the whole population</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Aucune mesure</c:v>
+                  <c:v>No restrictions</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$C$4:$G$4</c:f>
+              <c:f>Comparison!$C$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>_ * #\ ##0_)_ ;_ * \(#\ ##0\)_ ;_ * "-"??_)_ ;_ @_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -1065,7 +1076,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparaison!$B$4</c:f>
+              <c:f>Comparison!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1104,30 +1115,30 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Comparaison!$C$2:$G$2</c:f>
+              <c:f>Comparison!$C$2:$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Suppression forte
-(confinement)</c:v>
+                  <c:v>Suppression
+(lockdown)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Distanciation renforcée 
-des plus âgés</c:v>
+                  <c:v>Enhanced social distancing
+of elderiy</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Distanciation sociale 
-de toute la population</c:v>
+                  <c:v>Social distancing
+for the whole population</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Aucune mesure</c:v>
+                  <c:v>No restrictions</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$C$5:$G$5</c:f>
+              <c:f>Comparison!$C$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>_ * #\ ##0_)_ ;_ * \(#\ ##0\)_ ;_ * "-"??_)_ ;_ @_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -1160,7 +1171,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparaison!$B$5</c:f>
+              <c:f>Comparison!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1180,30 +1191,30 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparaison!$C$2:$G$2</c:f>
+              <c:f>Comparison!$C$2:$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Suppression forte
-(confinement)</c:v>
+                  <c:v>Suppression
+(lockdown)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Distanciation renforcée 
-des plus âgés</c:v>
+                  <c:v>Enhanced social distancing
+of elderiy</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Distanciation sociale 
-de toute la population</c:v>
+                  <c:v>Social distancing
+for the whole population</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Aucune mesure</c:v>
+                  <c:v>No restrictions</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$C$6:$G$6</c:f>
+              <c:f>Comparison!$C$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>_ * #\ ##0_)_ ;_ * \(#\ ##0\)_ ;_ * "-"??_)_ ;_ @_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -1233,7 +1244,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparaison!$B$6</c:f>
+              <c:f>Comparison!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1253,30 +1264,30 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparaison!$C$2:$G$2</c:f>
+              <c:f>Comparison!$C$2:$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Suppression forte
-(confinement)</c:v>
+                  <c:v>Suppression
+(lockdown)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Distanciation renforcée 
-des plus âgés</c:v>
+                  <c:v>Enhanced social distancing
+of elderiy</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Distanciation sociale 
-de toute la population</c:v>
+                  <c:v>Social distancing
+for the whole population</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Aucune mesure</c:v>
+                  <c:v>No restrictions</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$C$7:$G$7</c:f>
+              <c:f>Comparison!$C$7:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>_ * #\ ##0_)_ ;_ * \(#\ ##0\)_ ;_ * "-"??_)_ ;_ @_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -1352,7 +1363,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2039430767"/>
@@ -1397,7 +1408,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2095491359"/>
@@ -1443,7 +1454,7 @@
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1458,7 +1469,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1490,7 +1501,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR" b="1"/>
-              <a:t>Pic hospitalier en Suède durant la 1ère vague </a:t>
+              <a:t>Sweden Hospital peak, 1st wave</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1520,7 +1531,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1546,7 +1557,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparaison!$F$44</c:f>
+              <c:f>Comparison!$F$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1585,22 +1596,22 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Comparaison!$P$3:$R$3</c:f>
+              <c:f>Comparison!$P$3:$R$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Suppression forte
-(confinement)</c:v>
+                  <c:v>Suppression
+(lockdown)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Aucune mesure</c:v>
+                  <c:v>No restrictions</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$P$4:$R$4</c:f>
+              <c:f>Comparison!$P$4:$R$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1624,7 +1635,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparaison!$F$45</c:f>
+              <c:f>Comparison!$F$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1644,22 +1655,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparaison!$P$3:$R$3</c:f>
+              <c:f>Comparison!$P$3:$R$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Suppression forte
-(confinement)</c:v>
+                  <c:v>Suppression
+(lockdown)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Aucune mesure</c:v>
+                  <c:v>No restrictions</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$P$5:$R$5</c:f>
+              <c:f>Comparison!$P$5:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>_ * #\ ##0_)_ ;_ * \(#\ ##0\)_ ;_ * "-"??_)_ ;_ @_ </c:formatCode>
                 <c:ptCount val="3"/>
@@ -1683,7 +1694,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparaison!$F$46</c:f>
+              <c:f>Comparison!$F$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1701,22 +1712,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparaison!$P$3:$R$3</c:f>
+              <c:f>Comparison!$P$3:$R$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Suppression forte
-(confinement)</c:v>
+                  <c:v>Suppression
+(lockdown)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Aucune mesure</c:v>
+                  <c:v>No restrictions</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$G$46:$I$46</c:f>
+              <c:f>Comparison!$G$46:$I$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1783,7 +1794,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2099788879"/>
@@ -1828,7 +1839,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2028910767"/>
@@ -1874,7 +1885,7 @@
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1889,7 +1900,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1921,7 +1932,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR" b="1"/>
-              <a:t>Pic de lits de réanimation en Suède durant la 1ère vague</a:t>
+              <a:t>Sweden ICU peak, 1st wave</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1951,7 +1962,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1977,7 +1988,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparaison!$W$2</c:f>
+              <c:f>Comparison!$W$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -2016,22 +2027,22 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Comparaison!$AA$4:$AC$4</c:f>
+              <c:f>Comparison!$AA$4:$AC$4</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Suppression forte
-(confinement)</c:v>
+                  <c:v>Suppression
+(lockdown)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Aucune mesure</c:v>
+                  <c:v>No restrictions</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$AA$5:$AC$5</c:f>
+              <c:f>Comparison!$AA$5:$AC$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2055,7 +2066,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparaison!$W$3</c:f>
+              <c:f>Comparison!$W$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -2075,22 +2086,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparaison!$AA$4:$AC$4</c:f>
+              <c:f>Comparison!$AA$4:$AC$4</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Suppression forte
-(confinement)</c:v>
+                  <c:v>Suppression
+(lockdown)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Aucune mesure</c:v>
+                  <c:v>No restrictions</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$AA$6:$AC$6</c:f>
+              <c:f>Comparison!$AA$6:$AC$6</c:f>
               <c:numCache>
                 <c:formatCode>_ * #\ ##0_)_ ;_ * \(#\ ##0\)_ ;_ * "-"??_)_ ;_ @_ </c:formatCode>
                 <c:ptCount val="3"/>
@@ -2114,7 +2125,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparaison!$W$4</c:f>
+              <c:f>Comparison!$W$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -2132,22 +2143,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparaison!$AA$4:$AC$4</c:f>
+              <c:f>Comparison!$AA$4:$AC$4</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Suppression forte
-(confinement)</c:v>
+                  <c:v>Suppression
+(lockdown)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Aucune mesure</c:v>
+                  <c:v>No restrictions</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$X$4:$Z$4</c:f>
+              <c:f>Comparison!$X$4:$Z$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2214,7 +2225,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2099864943"/>
@@ -2259,7 +2270,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2100065807"/>
@@ -2305,7 +2316,7 @@
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2320,7 +2331,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2396,7 +2407,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2603,7 +2614,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="320484992"/>
@@ -2648,7 +2659,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="298572528"/>
@@ -2696,7 +2707,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2711,7 +2722,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2778,7 +2789,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2814,7 +2825,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparaison!$D$67:$G$67</c:f>
+              <c:f>Comparison!$D$67:$G$67</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2833,7 +2844,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$D$67:$G$67</c:f>
+              <c:f>Comparison!$D$67:$G$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2872,7 +2883,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparaison!$D$67:$G$67</c:f>
+              <c:f>Comparison!$D$67:$G$67</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2891,7 +2902,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$D$68:$G$68</c:f>
+              <c:f>Comparison!$D$68:$G$68</c:f>
               <c:numCache>
                 <c:formatCode>_ * #\ ##0_)_ ;_ * \(#\ ##0\)_ ;_ * "-"??_)_ ;_ @_ </c:formatCode>
                 <c:ptCount val="4"/>
@@ -2943,7 +2954,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Comparaison!$D$67:$G$67</c:f>
+              <c:f>Comparison!$D$67:$G$67</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2962,7 +2973,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$D$69:$G$69</c:f>
+              <c:f>Comparison!$D$69:$G$69</c:f>
               <c:numCache>
                 <c:formatCode>_ * #\ ##0_)_ ;_ * \(#\ ##0\)_ ;_ * "-"??_)_ ;_ @_ </c:formatCode>
                 <c:ptCount val="4"/>
@@ -3014,7 +3025,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Comparaison!$D$67:$G$67</c:f>
+              <c:f>Comparison!$D$67:$G$67</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3033,7 +3044,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$D$70:$G$70</c:f>
+              <c:f>Comparison!$D$70:$G$70</c:f>
               <c:numCache>
                 <c:formatCode>_ * #\ ##0_)_ ;_ * \(#\ ##0\)_ ;_ * "-"??_)_ ;_ @_ </c:formatCode>
                 <c:ptCount val="4"/>
@@ -3072,7 +3083,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparaison!$D$67:$G$67</c:f>
+              <c:f>Comparison!$D$67:$G$67</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3091,7 +3102,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$D$71:$G$71</c:f>
+              <c:f>Comparison!$D$71:$G$71</c:f>
               <c:numCache>
                 <c:formatCode>_ * #\ ##0_)_ ;_ * \(#\ ##0\)_ ;_ * "-"??_)_ ;_ @_ </c:formatCode>
                 <c:ptCount val="4"/>
@@ -3130,7 +3141,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparaison!$D$67:$G$67</c:f>
+              <c:f>Comparison!$D$67:$G$67</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3149,7 +3160,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$D$72:$G$72</c:f>
+              <c:f>Comparison!$D$72:$G$72</c:f>
               <c:numCache>
                 <c:formatCode>_ * #\ ##0_)_ ;_ * \(#\ ##0\)_ ;_ * "-"??_)_ ;_ @_ </c:formatCode>
                 <c:ptCount val="4"/>
@@ -3188,7 +3199,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparaison!$D$67:$G$67</c:f>
+              <c:f>Comparison!$D$67:$G$67</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3207,7 +3218,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$D$73:$G$73</c:f>
+              <c:f>Comparison!$D$73:$G$73</c:f>
               <c:numCache>
                 <c:formatCode>_ * #\ ##0_)_ ;_ * \(#\ ##0\)_ ;_ * "-"??_)_ ;_ @_ </c:formatCode>
                 <c:ptCount val="4"/>
@@ -3243,7 +3254,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparaison!$D$67:$G$67</c:f>
+              <c:f>Comparison!$D$67:$G$67</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3262,7 +3273,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$D$74:$G$74</c:f>
+              <c:f>Comparison!$D$74:$G$74</c:f>
               <c:numCache>
                 <c:formatCode>_ * #\ ##0_)_ ;_ * \(#\ ##0\)_ ;_ * "-"??_)_ ;_ @_ </c:formatCode>
                 <c:ptCount val="4"/>
@@ -3295,7 +3306,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparaison!$D$67:$G$67</c:f>
+              <c:f>Comparison!$D$67:$G$67</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3314,7 +3325,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$D$75:$G$75</c:f>
+              <c:f>Comparison!$D$75:$G$75</c:f>
               <c:numCache>
                 <c:formatCode>_ * #\ ##0_)_ ;_ * \(#\ ##0\)_ ;_ * "-"??_)_ ;_ @_ </c:formatCode>
                 <c:ptCount val="4"/>
@@ -3347,7 +3358,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparaison!$D$67:$G$67</c:f>
+              <c:f>Comparison!$D$67:$G$67</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3366,7 +3377,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$D$76:$G$76</c:f>
+              <c:f>Comparison!$D$76:$G$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3433,7 +3444,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2039430767"/>
@@ -3478,7 +3489,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2095491359"/>
@@ -3524,7 +3535,7 @@
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3539,7 +3550,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3601,7 +3612,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3627,7 +3638,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparaison!$F$44</c:f>
+              <c:f>Comparison!$F$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -3666,22 +3677,22 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Comparaison!$P$3:$R$3</c:f>
+              <c:f>Comparison!$P$3:$R$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Suppression forte
-(confinement)</c:v>
+                  <c:v>Suppression
+(lockdown)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Aucune mesure</c:v>
+                  <c:v>No restrictions</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$P$4:$R$4</c:f>
+              <c:f>Comparison!$P$4:$R$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3705,7 +3716,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparaison!$F$45</c:f>
+              <c:f>Comparison!$F$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -3725,22 +3736,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparaison!$P$3:$R$3</c:f>
+              <c:f>Comparison!$P$3:$R$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Suppression forte
-(confinement)</c:v>
+                  <c:v>Suppression
+(lockdown)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Aucune mesure</c:v>
+                  <c:v>No restrictions</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$P$5:$R$5</c:f>
+              <c:f>Comparison!$P$5:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>_ * #\ ##0_)_ ;_ * \(#\ ##0\)_ ;_ * "-"??_)_ ;_ @_ </c:formatCode>
                 <c:ptCount val="3"/>
@@ -3764,7 +3775,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparaison!$F$46</c:f>
+              <c:f>Comparison!$F$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -3782,22 +3793,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparaison!$P$3:$R$3</c:f>
+              <c:f>Comparison!$P$3:$R$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Suppression forte
-(confinement)</c:v>
+                  <c:v>Suppression
+(lockdown)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Aucune mesure</c:v>
+                  <c:v>No restrictions</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$G$46:$I$46</c:f>
+              <c:f>Comparison!$G$46:$I$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3864,7 +3875,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2099788879"/>
@@ -3909,7 +3920,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2028910767"/>
@@ -3955,7 +3966,7 @@
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3970,7 +3981,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4032,7 +4043,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4058,7 +4069,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparaison!$W$2</c:f>
+              <c:f>Comparison!$W$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -4097,22 +4108,22 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Comparaison!$AA$4:$AC$4</c:f>
+              <c:f>Comparison!$AA$4:$AC$4</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Suppression forte
-(confinement)</c:v>
+                  <c:v>Suppression
+(lockdown)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Aucune mesure</c:v>
+                  <c:v>No restrictions</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$AA$5:$AC$5</c:f>
+              <c:f>Comparison!$AA$5:$AC$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4136,7 +4147,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparaison!$W$3</c:f>
+              <c:f>Comparison!$W$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -4156,22 +4167,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparaison!$AA$4:$AC$4</c:f>
+              <c:f>Comparison!$AA$4:$AC$4</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Suppression forte
-(confinement)</c:v>
+                  <c:v>Suppression
+(lockdown)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Aucune mesure</c:v>
+                  <c:v>No restrictions</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$AA$6:$AC$6</c:f>
+              <c:f>Comparison!$AA$6:$AC$6</c:f>
               <c:numCache>
                 <c:formatCode>_ * #\ ##0_)_ ;_ * \(#\ ##0\)_ ;_ * "-"??_)_ ;_ @_ </c:formatCode>
                 <c:ptCount val="3"/>
@@ -4195,7 +4206,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparaison!$W$4</c:f>
+              <c:f>Comparison!$W$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -4213,22 +4224,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Comparaison!$AA$4:$AC$4</c:f>
+              <c:f>Comparison!$AA$4:$AC$4</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Suppression forte
-(confinement)</c:v>
+                  <c:v>Suppression
+(lockdown)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Aucune mesure</c:v>
+                  <c:v>No restrictions</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$X$4:$Z$4</c:f>
+              <c:f>Comparison!$X$4:$Z$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4295,7 +4306,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2099864943"/>
@@ -4340,7 +4351,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2100065807"/>
@@ -4386,7 +4397,7 @@
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4401,7 +4412,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4477,7 +4488,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4684,7 +4695,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="320484992"/>
@@ -4743,7 +4754,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="298572528"/>
@@ -4791,7 +4802,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4806,7 +4817,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4885,7 +4896,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5408,7 +5419,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="320484992"/>
@@ -5453,7 +5464,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="298572528"/>
@@ -5501,7 +5512,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11601,6 +11612,1915 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
+            <a:t>Imperial College</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>modelling</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.89787</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.98808</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="ZoneTexte 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29554A5E-FCFA-B845-8601-D6A74CE1A504}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="6699250"/>
+          <a:ext cx="10007600" cy="673086"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Sources:</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Imperial College Report 12,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> March </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>26,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> 2020 </a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>https://www.imperial.ac.uk/mrc-global-infectious-disease-analysis/covid-19/report-12-global-impact-covid-19/</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>twitter : @Covid_Scenarios</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.79473</cdr:x>
+      <cdr:y>0.58835</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99794</cdr:x>
+      <cdr:y>0.70485</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="ZoneTexte 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0981174E-5C1D-4743-B0FE-52ABA7A219D8}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7576870" y="6326212"/>
+          <a:ext cx="1937400" cy="1252645"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Reality</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>(some restrictions </a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>but</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>no </a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>lockdown)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.90985</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="ZoneTexte 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F68B6C8-6F0A-2F44-AF24-F7025626A123}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="9111155"/>
+          <a:ext cx="4572000" cy="902795"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Sources:</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Imperial College Report 12,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> March </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>26,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> 2020 </a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>https://www.imperial.ac.uk/mrc-global-infectious-disease-analysis/covid-19/report-12-global-impact-covid-19/</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>twitter : @Covid_Scenarios</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.14178</cdr:x>
+      <cdr:y>0.46209</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.54984</cdr:x>
+      <cdr:y>0.62041</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="ZoneTexte 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94EE138A-790D-C04F-949F-A7D4E3382E49}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1348332" y="5070439"/>
+          <a:ext cx="3880526" cy="1737162"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Imperial College</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>modelling</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.64506</cdr:x>
+      <cdr:y>0.63573</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.88185</cdr:x>
+      <cdr:y>0.73174</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="ZoneTexte 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54782DA7-55C9-5642-97CE-CCFCE75D7BE9}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6193647" y="6900207"/>
+          <a:ext cx="2273581" cy="1042117"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Reality</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>(some</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> restrictions but</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>no lockdown)</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.91027</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="ZoneTexte 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A59C6C10-2E2C-6F41-9D9D-F470FE5821A4}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="8847832"/>
+          <a:ext cx="7011149" cy="872151"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Sources:</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Imperial College Report 12,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> March </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>26,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> 2020 </a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>https://www.imperial.ac.uk/mrc-global-infectious-disease-analysis/covid-19/report-12-global-impact-covid-19/</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>twitter : @Covid_Scenarios</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.15802</cdr:x>
+      <cdr:y>0.47528</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.56666</cdr:x>
+      <cdr:y>0.63285</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="ZoneTexte 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{115E96FA-8A38-DC4A-8366-E302F2513489}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1531291" y="5157625"/>
+          <a:ext cx="3959984" cy="1709883"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Imperial College</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>modelling</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.68359</cdr:x>
+      <cdr:y>0.62383</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.90102</cdr:x>
+      <cdr:y>0.72644</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="ZoneTexte 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0981174E-5C1D-4743-B0FE-52ABA7A219D8}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6540016" y="6746948"/>
+          <a:ext cx="2080099" cy="1109736"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Reality</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>(some</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> restrictions but</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>no lockdown</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.91058</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="ZoneTexte 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B29DAE29-10FA-424F-9D13-4EA83D3675BE}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="9499112"/>
+          <a:ext cx="9838553" cy="932786"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Sources :</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>-Rapport 12 de l'Imperial College sur le covid du 26 Mars</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> 2020 </a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> https://www.imperial.ac.uk/mrc-global-infectious-disease-analysis/covid-19/report-12-global-impact-covid-19/</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>-data.gouv.fr</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.21488</cdr:x>
+      <cdr:y>0.17785</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.47432</cdr:x>
+      <cdr:y>0.33539</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="ZoneTexte 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77674923-AB28-0846-94BC-D804054CA3D3}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2082800" y="1930400"/>
+          <a:ext cx="2514600" cy="1709914"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Modélisations </a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>de l'Imperial </a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>College</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.62893</cdr:x>
+      <cdr:y>0.21998</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.7521</cdr:x>
+      <cdr:y>0.32257</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="ZoneTexte 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B9F482A-BC72-234D-B8BD-8B7D9DAB52CE}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6096000" y="2387600"/>
+          <a:ext cx="1193800" cy="1113501"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Réalité</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.22921</cdr:x>
+      <cdr:y>0.32917</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.63911</cdr:x>
+      <cdr:y>0.48759</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="ZoneTexte 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F8784EB-D50C-7D4A-B777-44593804FA8B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2193493" y="3513081"/>
+          <a:ext cx="3922648" cy="1690739"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>Modélisations </a:t>
           </a:r>
         </a:p>
@@ -11801,12 +13721,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.79473</cdr:x>
-      <cdr:y>0.58835</cdr:y>
+      <cdr:x>0.75</cdr:x>
+      <cdr:y>0.60494</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.99794</cdr:x>
-      <cdr:y>0.70485</cdr:y>
+      <cdr:x>0.95321</cdr:x>
+      <cdr:y>0.72144</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -11821,8 +13741,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7576870" y="6326212"/>
-          <a:ext cx="1937400" cy="1252645"/>
+          <a:off x="7153390" y="6837469"/>
+          <a:ext cx="1938196" cy="1316772"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -11918,20 +13838,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>(des mesures </a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2000">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>mais</a:t>
+            <a:t>(mesures</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-FR" sz="2000" baseline="0">
@@ -11941,7 +13848,20 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> </a:t>
+            <a:t> intermédiaires</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>sans confinement</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-FR" sz="2000">
@@ -11951,40 +13871,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>pas </a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2000">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>de</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2000" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2000">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>confinement)</a:t>
+            <a:t>)</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -11993,7 +13880,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -12452,7 +14339,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -12885,1791 +14772,8 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0</cdr:x>
-      <cdr:y>0.91058</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="ZoneTexte 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B29DAE29-10FA-424F-9D13-4EA83D3675BE}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="9499112"/>
-          <a:ext cx="9838553" cy="932786"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Sources :</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>-Rapport 12 de l'Imperial College sur le covid du 26 Mars</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> 2020 </a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> https://www.imperial.ac.uk/mrc-global-infectious-disease-analysis/covid-19/report-12-global-impact-covid-19/</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>-data.gouv.fr</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.21488</cdr:x>
-      <cdr:y>0.17785</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.47432</cdr:x>
-      <cdr:y>0.33539</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="ZoneTexte 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77674923-AB28-0846-94BC-D804054CA3D3}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2082800" y="1930400"/>
-          <a:ext cx="2514600" cy="1709914"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2800">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Modélisations </a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2800">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>de l'Imperial </a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2800">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>College</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.62893</cdr:x>
-      <cdr:y>0.21998</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.7521</cdr:x>
-      <cdr:y>0.32257</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="4" name="ZoneTexte 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B9F482A-BC72-234D-B8BD-8B7D9DAB52CE}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6096000" y="2387600"/>
-          <a:ext cx="1193800" cy="1113501"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2800">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Réalité</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.22921</cdr:x>
-      <cdr:y>0.32917</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.63911</cdr:x>
-      <cdr:y>0.48759</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="ZoneTexte 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F8784EB-D50C-7D4A-B777-44593804FA8B}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2193493" y="3513081"/>
-          <a:ext cx="3922648" cy="1690739"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2800">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Modélisations </a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2800">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>de l'Imperial College</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0</cdr:x>
-      <cdr:y>0.89787</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>0.98808</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="5" name="ZoneTexte 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29554A5E-FCFA-B845-8601-D6A74CE1A504}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="6699250"/>
-          <a:ext cx="10007600" cy="673086"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Sources :</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>-Rapport 12 de l'Imperial College sur le covid du 26 Mars</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> 2020 </a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> https://www.imperial.ac.uk/mrc-global-infectious-disease-analysis/covid-19/report-12-global-impact-covid-19/</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>https://evaluation-modelisation-covid.github.io/france/</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.75</cdr:x>
-      <cdr:y>0.60494</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.95321</cdr:x>
-      <cdr:y>0.72144</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="6" name="ZoneTexte 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0981174E-5C1D-4743-B0FE-52ABA7A219D8}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7153390" y="6837469"/>
-          <a:ext cx="1938196" cy="1316772"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2800">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Réalité</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2000">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>(mesures</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2000" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> intermédiaires</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2000" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>sans confinement</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2000">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0</cdr:x>
-      <cdr:y>0.90985</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="ZoneTexte 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F68B6C8-6F0A-2F44-AF24-F7025626A123}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="9111155"/>
-          <a:ext cx="4572000" cy="902795"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Sources :</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>-Rapport 12 de l'Imperial College sur le covid du 26 Mars</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> 2020 </a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> https://www.imperial.ac.uk/mrc-global-infectious-disease-analysis/covid-19/report-12-global-impact-covid-19/</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>https://evaluation-modelisation-covid.github.io/france/</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-FR" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.14178</cdr:x>
-      <cdr:y>0.46209</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.54984</cdr:x>
-      <cdr:y>0.62041</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="ZoneTexte 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94EE138A-790D-C04F-949F-A7D4E3382E49}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1348332" y="5070439"/>
-          <a:ext cx="3880526" cy="1737162"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2800">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Modélisations </a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2800">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>de l'Imperial College</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.64506</cdr:x>
-      <cdr:y>0.63573</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.88185</cdr:x>
-      <cdr:y>0.73174</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="4" name="ZoneTexte 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54782DA7-55C9-5642-97CE-CCFCE75D7BE9}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6193647" y="6900207"/>
-          <a:ext cx="2273581" cy="1042117"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2800">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Réalité</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2000">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>(des mesures mais</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2000">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>pas de confinement)</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0</cdr:x>
-      <cdr:y>0.91027</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="5" name="ZoneTexte 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A59C6C10-2E2C-6F41-9D9D-F470FE5821A4}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="8847832"/>
-          <a:ext cx="7011149" cy="872151"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Sources :</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>-Rapport 12 de l'Imperial College sur le covid du 26 Mars</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> 2020 </a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> https://www.imperial.ac.uk/mrc-global-infectious-disease-analysis/covid-19/report-12-global-impact-covid-19/</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1400" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>https://evaluation-modelisation-covid.github.io/france/</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.15802</cdr:x>
-      <cdr:y>0.47528</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.56666</cdr:x>
-      <cdr:y>0.63285</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="7" name="ZoneTexte 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{115E96FA-8A38-DC4A-8366-E302F2513489}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1531291" y="5157625"/>
-          <a:ext cx="3959984" cy="1709883"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2800">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Modélisations </a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2800">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>de l'Imperial College</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.68359</cdr:x>
-      <cdr:y>0.62383</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.90102</cdr:x>
-      <cdr:y>0.72644</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="8" name="ZoneTexte 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0981174E-5C1D-4743-B0FE-52ABA7A219D8}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6540016" y="6746948"/>
-          <a:ext cx="2080099" cy="1109736"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2800">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Réalité</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2000">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>(des mesures mais</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2000">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>pas de confinement)</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -14999,7 +15103,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="O3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="23" x14ac:dyDescent="0.25">
@@ -15010,7 +15114,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="O4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="23" x14ac:dyDescent="0.25">
@@ -15022,7 +15126,7 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="O8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -15035,8 +15139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54965D58-17FD-5645-8B10-230DA9462C70}">
   <dimension ref="B1:AD97"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M137" sqref="M137"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH4" sqref="AH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15047,7 +15151,7 @@
     <row r="1" spans="2:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="7"/>
       <c r="G1" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H1" s="7"/>
       <c r="L1" s="7"/>
@@ -15059,26 +15163,26 @@
       <c r="W1" s="7"/>
       <c r="AA1" s="7"/>
     </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:29" ht="68" x14ac:dyDescent="0.2">
       <c r="B2" s="9"/>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>8</v>
+      <c r="C2" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="R2" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
@@ -15087,7 +15191,7 @@
       <c r="W2" s="9"/>
       <c r="AA2" s="7"/>
     </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:29" ht="51" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -15097,11 +15201,11 @@
       <c r="H3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="P3" s="7" t="s">
-        <v>10</v>
+      <c r="P3" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
@@ -15111,10 +15215,10 @@
       <c r="W3" s="9"/>
       <c r="AA3" s="7"/>
       <c r="AC3" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:29" ht="51" x14ac:dyDescent="0.2">
       <c r="B4" s="9"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8">
@@ -15150,11 +15254,11 @@
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
-      <c r="AA4" s="7" t="s">
-        <v>10</v>
+      <c r="AA4" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="AB4" s="7" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="AC4" s="7"/>
     </row>
@@ -15357,10 +15461,10 @@
       <c r="F12" s="11"/>
     </row>
     <row r="44" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F44" s="21"/>
+      <c r="F44" s="23"/>
     </row>
     <row r="45" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F45" s="22"/>
+      <c r="F45" s="24"/>
     </row>
     <row r="46" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F46" s="2"/>
@@ -15371,18 +15475,18 @@
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="4:30" ht="85" x14ac:dyDescent="0.2">
       <c r="D67" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="28" t="s">
-        <v>47</v>
+        <v>9</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G67" s="7"/>
     </row>
@@ -15469,12 +15573,12 @@
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
       <c r="S73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="T73" s="7"/>
       <c r="U73" s="7"/>
       <c r="V73" s="7"/>
-      <c r="W73" s="20"/>
+      <c r="W73" s="25"/>
       <c r="X73" s="19"/>
       <c r="AB73" s="7"/>
     </row>
@@ -15486,7 +15590,7 @@
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
       <c r="Q74" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R74" s="7" t="s">
         <v>7</v>
@@ -15495,11 +15599,11 @@
       <c r="T74" s="7"/>
       <c r="U74" s="7"/>
       <c r="V74" s="7"/>
-      <c r="W74" s="20"/>
+      <c r="W74" s="25"/>
       <c r="X74" s="19"/>
       <c r="AB74" s="7"/>
       <c r="AD74" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="4:30" x14ac:dyDescent="0.2">
@@ -15530,7 +15634,7 @@
       <c r="Z75" s="7"/>
       <c r="AA75" s="7"/>
       <c r="AB75" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC75" s="7" t="s">
         <v>7</v>
@@ -15677,8 +15781,7 @@
       <c r="G97" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="V2:V3"/>
+  <mergeCells count="2">
     <mergeCell ref="F44:F45"/>
     <mergeCell ref="W73:W74"/>
   </mergeCells>
@@ -15691,8 +15794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BD9BBA-8FA2-C14D-BC0F-BEA271B81B76}">
   <dimension ref="A12:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J22" zoomScale="65" workbookViewId="0">
-      <selection activeCell="AI58" sqref="AI58"/>
+    <sheetView topLeftCell="A12" zoomScale="50" workbookViewId="0">
+      <selection activeCell="AG54" sqref="AG54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15706,37 +15809,37 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N12" t="s">
-        <v>46</v>
-      </c>
-      <c r="O12" s="29" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="P12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -15760,7 +15863,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -15784,7 +15887,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -15811,7 +15914,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -15844,7 +15947,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -15874,7 +15977,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -15901,7 +16004,7 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -15925,7 +16028,7 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -16031,41 +16134,41 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="J28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="L28" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -16078,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F29" s="1">
         <v>65273512</v>
@@ -16106,7 +16209,7 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D30" s="1">
         <v>0.75</v>
@@ -16141,7 +16244,7 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D31" s="1">
         <v>0.75</v>
@@ -16174,15 +16277,15 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C38" s="1">
         <v>7317</v>
@@ -16191,12 +16294,12 @@
         <v>7019</v>
       </c>
       <c r="K38" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C39" s="1">
         <v>30894</v>
@@ -16210,7 +16313,7 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C40" s="1">
         <v>21517</v>
@@ -16219,7 +16322,7 @@
         <v>30000</v>
       </c>
       <c r="K40" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -16233,7 +16336,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16249,10 +16352,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -16260,14 +16363,14 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -16285,7 +16388,7 @@
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="15">
@@ -16293,7 +16396,7 @@
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="30" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="14">
@@ -16303,13 +16406,13 @@
       <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="16">
         <v>25475</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="27"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="13">
         <v>134492</v>
       </c>
@@ -16317,13 +16420,13 @@
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="16">
         <v>39567</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
-      <c r="F7" s="27"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="13">
         <v>171191</v>
       </c>
@@ -16331,13 +16434,13 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="15">
         <v>44911</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="27"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="14">
         <v>188432</v>
       </c>
@@ -16345,7 +16448,7 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="28" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="15">
@@ -16353,7 +16456,7 @@
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="30" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="14">
@@ -16363,11 +16466,11 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="16">
         <v>46253</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="30"/>
       <c r="G10" s="13">
         <v>178279</v>
       </c>
@@ -16375,11 +16478,11 @@
       <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="16">
         <v>51540</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="13">
         <v>196261</v>
       </c>
@@ -16387,11 +16490,11 @@
       <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="15">
         <v>56324</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="30"/>
       <c r="G12" s="14">
         <v>212131</v>
       </c>
@@ -16399,13 +16502,13 @@
       <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="29" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="15">
         <v>88019</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="30" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="14">
@@ -16415,11 +16518,11 @@
       <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="16">
         <v>100170</v>
       </c>
-      <c r="F14" s="27"/>
+      <c r="F14" s="30"/>
       <c r="G14" s="13">
         <v>344765</v>
       </c>
@@ -16427,11 +16530,11 @@
       <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="16">
         <v>110628</v>
       </c>
-      <c r="F15" s="27"/>
+      <c r="F15" s="30"/>
       <c r="G15" s="13">
         <v>373102</v>
       </c>
@@ -16439,11 +16542,11 @@
       <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="15">
         <v>119531</v>
       </c>
-      <c r="F16" s="27"/>
+      <c r="F16" s="30"/>
       <c r="G16" s="14">
         <v>396602</v>
       </c>
@@ -16451,14 +16554,14 @@
       <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
-        <v>9</v>
+      <c r="A17" s="26" t="s">
+        <v>8</v>
       </c>
       <c r="B17" s="16">
         <v>19166</v>
       </c>
-      <c r="F17" s="24" t="s">
-        <v>9</v>
+      <c r="F17" s="27" t="s">
+        <v>8</v>
       </c>
       <c r="G17" s="13">
         <v>19513</v>
@@ -16467,11 +16570,11 @@
       <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
+      <c r="A18" s="26"/>
       <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="24"/>
+        <v>16</v>
+      </c>
+      <c r="F18" s="27"/>
       <c r="G18" s="13">
         <v>79040</v>
       </c>
@@ -16480,16 +16583,16 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
       <c r="F19" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
